--- a/biology/Médecine/Échinomycine/Échinomycine.xlsx
+++ b/biology/Médecine/Échinomycine/Échinomycine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89chinomycine</t>
+          <t>Échinomycine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'échinomycine ou lévomycine[2] ou quinomycine A[2] est un antibiotique polypeptidique cytotoxique contenant deux substituants quinoxaline qui se lie à l'ADN et inhibe la synthèse des ARN[2]. Il s'intercale dans l'ADN sur deux sites spécifiques, bloquant ainsi la fixation du facteur HIF1alpha (hypoxia inducible factor 1 alpha).
+L'échinomycine ou lévomycine ou quinomycine A est un antibiotique polypeptidique cytotoxique contenant deux substituants quinoxaline qui se lie à l'ADN et inhibe la synthèse des ARN. Il s'intercale dans l'ADN sur deux sites spécifiques, bloquant ainsi la fixation du facteur HIF1alpha (hypoxia inducible factor 1 alpha).
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89chinomycine</t>
+          <t>Échinomycine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Biosynthèse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'échinomycine est synthétisée par une unique peptide-synthétase non ribosomique (PNRs)[3]. L'échinomycine peut être isolée de diverses bactéries telles que Streptomyces lasalienis ou Streptomyces echinatus. Elle appartient à la famille d'antibiotiques quinoxaline qui sont très intéressants parce qu'ils ont de fortes propriétés antibactériennes, anticancéreuses et même une activité antivirale[4].  
-La biosynthèse de l'échinomycine commence par la molécule QC (ci-dessous). Le L-tryptophane est le précurseur de la biosynthèse de QC et cette étape est identique à la première étape de la biosynthèse de la nikkomycine. Après que QC est synthétisé, le domaine d'adénylation contenant Ecm1 active et transfère QC à FabC en utilisant une protéine porteuse d'acyle (ACP) de biosynthèse d'acides gras. Le premier module suivant Ecm6 accepte QC-SFabC en tant que l'unité de démarrage. Emc7 contient un domaine terminal thioestérase qui permet au peptide de dimériser et d'être relâché. Ce produit cyclique va ensuite à Ecm17, une oxydoréductase, qui crée un pont disulfure. La dernière étape de cette biosynthèse transforme la liaison disulfure dans un pont thioacétal. Cette transformation a lieu avec Ecm18, qui est assez similaire à la méthyltransférase dépendante de la S-adénosyl-L-méthionine (en)(SAM)[4]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'échinomycine est synthétisée par une unique peptide-synthétase non ribosomique (PNRs). L'échinomycine peut être isolée de diverses bactéries telles que Streptomyces lasalienis ou Streptomyces echinatus. Elle appartient à la famille d'antibiotiques quinoxaline qui sont très intéressants parce qu'ils ont de fortes propriétés antibactériennes, anticancéreuses et même une activité antivirale.  
+La biosynthèse de l'échinomycine commence par la molécule QC (ci-dessous). Le L-tryptophane est le précurseur de la biosynthèse de QC et cette étape est identique à la première étape de la biosynthèse de la nikkomycine. Après que QC est synthétisé, le domaine d'adénylation contenant Ecm1 active et transfère QC à FabC en utilisant une protéine porteuse d'acyle (ACP) de biosynthèse d'acides gras. Le premier module suivant Ecm6 accepte QC-SFabC en tant que l'unité de démarrage. Emc7 contient un domaine terminal thioestérase qui permet au peptide de dimériser et d'être relâché. Ce produit cyclique va ensuite à Ecm17, une oxydoréductase, qui crée un pont disulfure. La dernière étape de cette biosynthèse transforme la liaison disulfure dans un pont thioacétal. Cette transformation a lieu avec Ecm18, qui est assez similaire à la méthyltransférase dépendante de la S-adénosyl-L-méthionine (en)(SAM). 
 </t>
         </is>
       </c>
